--- a/server-res/excel/Cfg_Bullet.xlsx
+++ b/server-res/excel/Cfg_Bullet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,14 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,13 +206,17 @@
   </si>
   <si>
     <t>消失类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,6 +278,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -328,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,136 +597,136 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>80000</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+      <c r="M3">
+        <v>8010001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>80000</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>10000</v>
@@ -761,16 +761,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>10000</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -873,53 +873,12 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>10000</v>
       </c>
       <c r="M7">
-        <v>8010001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>80000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>10000</v>
-      </c>
-      <c r="M8">
         <v>8010001</v>
       </c>
     </row>
